--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\代码\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E64AA8-5793-4C7A-B85C-93BD4E86F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884846B6-4B6E-436C-B1DF-D6E140A0801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -384,6 +384,9 @@
       <c r="A2" s="1">
         <v>4</v>
       </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\代码\知识库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884846B6-4B6E-436C-B1DF-D6E140A0801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF496D0B-02E9-447D-8CD0-9CB2217ABC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -1,37 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF496D0B-02E9-447D-8CD0-9CB2217ABC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA67D55C-19A5-4228-85D8-57F929031279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -372,60 +394,89 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <f>SUM(B2:B10)</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C2:C10)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="1">
+        <f>B11-C11</f>
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -1,91 +1,400 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA67D55C-19A5-4228-85D8-57F929031279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="12255" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
   </si>
   <si>
     <t>余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>r</t>
+  </si>
+  <si>
+    <t>咪子之前的花呗</t>
   </si>
   <si>
     <t>合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,9 +402,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -103,17 +654,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -162,7 +757,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -197,7 +792,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -371,30 +966,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,13 +994,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -419,69 +1014,153 @@
         <v>0.9</v>
       </c>
       <c r="D2" s="1">
-        <v>1.1000000000000001</v>
+        <f>B2-C2</f>
+        <v>1.1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>5</v>
       </c>
+      <c r="B3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D11" si="0">B3-C3</f>
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>6</v>
       </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>7</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>8</v>
       </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>9</v>
       </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>10</v>
       </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>11</v>
       </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>12</v>
       </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
         <v>0.9</v>
       </c>
       <c r="D11" s="1">
-        <f>B11-C11</f>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12255" windowHeight="5580"/>
+    <workbookView windowWidth="12255" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>m</t>
   </si>
@@ -34,6 +34,9 @@
     <t>咪子之前的花呗</t>
   </si>
   <si>
+    <t>键盘</t>
+  </si>
+  <si>
     <t>合</t>
   </si>
 </sst>
@@ -42,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,12 +60,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -70,23 +118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,40 +128,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,14 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -171,7 +189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,22 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +212,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -221,175 +314,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +403,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,13 +436,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,41 +493,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,10 +509,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,133 +521,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,7 +978,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1021,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -1029,11 +1032,14 @@
         <v>2.5</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>2.5</v>
+        <v>2.3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1143,7 +1149,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
@@ -1151,11 +1157,11 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -1,38 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76928A34-C06C-4CEE-9EC1-0AF2F9E1AAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="12255" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>m</t>
   </si>
@@ -54,16 +36,18 @@
   <si>
     <t>合</t>
   </si>
-  <si>
-    <t>咸鱼买手表，等待卖出回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,30 +56,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,30 +409,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -384,19 +976,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
@@ -404,7 +996,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -433,13 +1025,13 @@
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -447,17 +1039,15 @@
         <v>2.5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>1.85</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -472,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -487,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -502,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -517,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -532,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -547,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -562,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -572,16 +1162,16 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>1.55</v>
+        <v>0.9</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC71812-28D6-42BD-BEF9-FAFE1AD556EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3886CAF2-E4A2-4C7A-9EE9-553AB03CCB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>m</t>
   </si>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>合</t>
+  </si>
+  <si>
+    <t>淘宝买键盘和桌面时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -68,14 +72,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -107,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,7 +393,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,13 +447,15 @@
         <v>2.5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.37256</v>
+        <v>0.39256000000000002</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>2.12744</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>2.10744</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -565,19 +572,19 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>1.2725599999999999</v>
+        <v>1.2925599999999999</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>3.2274400000000001</v>
+        <v>3.2074400000000001</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>3227.44</v>
+        <v>3207.44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -1,38 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3886CAF2-E4A2-4C7A-9EE9-553AB03CCB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>m</t>
   </si>
@@ -52,18 +34,35 @@
     <t>咪子之前的花呗</t>
   </si>
   <si>
-    <t>合</t>
+    <t>键盘:0.34696</t>
   </si>
   <si>
-    <t>淘宝买键盘和桌面时钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>电费：0.2</t>
+  </si>
+  <si>
+    <t>桌面时钟：0.0256</t>
+  </si>
+  <si>
+    <t>补胎：0.025</t>
+  </si>
+  <si>
+    <t>饭卡：0.2</t>
+  </si>
+  <si>
+    <t>合</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,30 +71,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,30 +424,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -384,27 +991,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -433,13 +1045,13 @@
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -447,17 +1059,29 @@
         <v>2.5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.39256000000000002</v>
+        <v>0.79756</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>2.10744</v>
+        <v>1.70244</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -472,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -487,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -502,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -517,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -532,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -547,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -562,9 +1186,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
@@ -572,20 +1196,20 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>1.2925599999999999</v>
+        <v>1.69756</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>3.2074400000000001</v>
+        <v>2.80244</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>3207.44</v>
+        <v>2802.44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EC00FA-7ABA-48D4-A499-CBAC7A8AA450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82063152-50B0-440C-B4D5-64CB283682F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>m</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>水杯：0.0548</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭：0.041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶：0.027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活费：0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -446,10 +458,12 @@
     <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="14" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -484,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -492,12 +506,12 @@
         <v>2.5</v>
       </c>
       <c r="C3" s="3">
-        <f>0.79756+0.21991+0.04+0.02+0.0548</f>
-        <v>1.1322700000000001</v>
+        <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5</f>
+        <v>1.7002699999999999</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>1.3677299999999999</v>
+        <v>0.79973000000000005</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -526,8 +540,17 @@
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -542,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -557,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -572,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -587,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -602,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -617,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -632,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -642,15 +665,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>2.03227</v>
+        <v>2.6002700000000001</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>2.46773</v>
+        <v>1.8997299999999999</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>2467.73</v>
+        <v>1899.73</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82063152-50B0-440C-B4D5-64CB283682F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF076A-E881-4012-BF10-8B7ADFBE3062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>m</t>
   </si>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>生活费：0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表（待回血）：0.65</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,10 +464,11 @@
     <col min="13" max="13" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="17" max="17" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -498,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -506,12 +511,12 @@
         <v>2.5</v>
       </c>
       <c r="C3" s="3">
-        <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5</f>
-        <v>1.7002699999999999</v>
+        <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5+0.65</f>
+        <v>2.3502700000000001</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>0.79973000000000005</v>
+        <v>0.14972999999999992</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -549,8 +554,11 @@
       <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -565,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -580,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -595,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -610,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -625,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -640,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -655,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -665,15 +673,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>2.6002700000000001</v>
+        <v>3.25027</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>1.8997299999999999</v>
+        <v>1.24973</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>1899.73</v>
+        <v>1249.73</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -1,38 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF076A-E881-4012-BF10-8B7ADFBE3062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>m</t>
   </si>
@@ -67,46 +49,47 @@
     <t>饭卡：0.2</t>
   </si>
   <si>
+    <t>艾香：0.21991</t>
+  </si>
+  <si>
+    <t>理发：0.04</t>
+  </si>
+  <si>
+    <t>question：0.02</t>
+  </si>
+  <si>
+    <t>水杯：0.0548</t>
+  </si>
+  <si>
+    <t>午饭：0.041</t>
+  </si>
+  <si>
+    <t>奶茶：0.027</t>
+  </si>
+  <si>
+    <t>生活费：0.5</t>
+  </si>
+  <si>
+    <t>表（待回血）：0.65</t>
+  </si>
+  <si>
+    <t>健身卡：0.2</t>
+  </si>
+  <si>
     <t>合</t>
-  </si>
-  <si>
-    <t>艾香：0.21991</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理发：0.04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>question：0.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水杯：0.0548</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>午饭：0.041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶茶：0.027</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活费：0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表（待回血）：0.65</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,29 +105,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,9 +451,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -164,21 +705,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,39 +1021,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +1071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -497,28 +1083,28 @@
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2.5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5+0.65</f>
-        <v>2.3502700000000001</v>
+        <v>2.35027</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>0.14972999999999992</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>0.14973</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -533,32 +1119,35 @@
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -573,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -588,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -603,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -618,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -633,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -648,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -663,9 +1252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
@@ -685,8 +1274,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF9B32C-FDEB-4330-A6DA-DD1E9039864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3FC12E-EC4D-4DAE-9E84-8D7AE5593063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>m</t>
   </si>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>生活费：0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转钱宝子咪：1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,17 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
@@ -462,12 +467,12 @@
     <col min="12" max="12" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="16" max="18" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -502,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -510,12 +515,12 @@
         <v>2.5</v>
       </c>
       <c r="C3" s="2">
-        <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5+0.2+0.2</f>
-        <v>2.1002700000000001</v>
+        <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5+0.2+0.2+1</f>
+        <v>3.1002700000000001</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>0.39972999999999992</v>
+        <v>-0.60027000000000008</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -559,8 +564,11 @@
       <c r="R3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -575,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -590,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -605,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -620,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -635,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -650,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -665,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -675,15 +683,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>3.00027</v>
+        <v>4.0002700000000004</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>1.49973</v>
+        <v>0.49972999999999956</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>1499.73</v>
+        <v>499.72999999999956</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3FC12E-EC4D-4DAE-9E84-8D7AE5593063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E3797C-68D0-4333-81C2-D42DC993638D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>m</t>
   </si>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>转钱宝子咪：1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲节红包：0.188</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,10 +473,11 @@
     <col min="14" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="20" max="20" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -507,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -515,12 +520,12 @@
         <v>2.5</v>
       </c>
       <c r="C3" s="2">
-        <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5+0.2+0.2+1</f>
-        <v>3.1002700000000001</v>
+        <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5+0.2+0.2+1+0.188</f>
+        <v>3.2882700000000002</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>-0.60027000000000008</v>
+        <v>-0.78827000000000025</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -567,8 +572,11 @@
       <c r="S3" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -583,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -598,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -613,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -628,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -643,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -658,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -673,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -683,15 +691,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>4.0002700000000004</v>
+        <v>4.1882700000000002</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.49972999999999956</v>
+        <v>0.31172999999999984</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>499.72999999999956</v>
+        <v>311.72999999999985</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E3797C-68D0-4333-81C2-D42DC993638D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80C133-9026-4A93-8291-2281C0C90EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>m</t>
   </si>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -512,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -520,12 +520,12 @@
         <v>2.5</v>
       </c>
       <c r="C3" s="2">
-        <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5+0.2+0.2+1+0.188</f>
-        <v>3.2882700000000002</v>
+        <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5+0.2+0.2+1+0.188+0.2</f>
+        <v>3.4882700000000004</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>-0.78827000000000025</v>
+        <v>-0.98827000000000043</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -575,8 +575,11 @@
       <c r="T3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -591,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -606,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -621,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -636,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -651,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -666,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -681,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -691,15 +694,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>4.1882700000000002</v>
+        <v>4.3882700000000003</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.31172999999999984</v>
+        <v>0.11172999999999966</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>311.72999999999985</v>
+        <v>111.72999999999966</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80C133-9026-4A93-8291-2281C0C90EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E910BB1-7FCA-4B36-9C5F-AB5AEEFD9C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,14 +584,14 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
@@ -698,11 +698,11 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.11172999999999966</v>
+        <v>4.1117299999999997</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>111.72999999999966</v>
+        <v>4111.7299999999996</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E910BB1-7FCA-4B36-9C5F-AB5AEEFD9C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A776CC-FF0B-4666-9D37-C2C485EEDCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>m</t>
   </si>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>父亲节红包：0.188</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费：0.42</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +456,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,17 +585,20 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.58</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -694,15 +701,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>4.3882700000000003</v>
+        <v>4.8082700000000003</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>4.1117299999999997</v>
+        <v>3.6917299999999997</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>4111.7299999999996</v>
+        <v>3691.7299999999996</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A776CC-FF0B-4666-9D37-C2C485EEDCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD24435-596A-4C50-94A2-A1486D519C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>m</t>
   </si>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>电费：0.42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金：1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原神：0.068</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +464,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -590,15 +598,22 @@
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.42</v>
+      <c r="C4" s="4">
+        <f>0.42+1.5+0.068</f>
+        <v>1.988</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>3.58</v>
+        <v>2.012</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -701,15 +716,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>4.8082700000000003</v>
+        <v>6.3762699999999999</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>3.6917299999999997</v>
+        <v>2.1237300000000001</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>3691.7299999999996</v>
+        <v>2123.73</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -1,38 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD24435-596A-4C50-94A2-A1486D519C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>m</t>
   </si>
@@ -91,38 +73,41 @@
     <t>健身卡：0.2</t>
   </si>
   <si>
+    <t>生活费：0.2</t>
+  </si>
+  <si>
+    <t>转钱宝子咪：1</t>
+  </si>
+  <si>
+    <t>父亲节红包：0.188</t>
+  </si>
+  <si>
+    <t>电费：0.42</t>
+  </si>
+  <si>
+    <t>押金：1.5</t>
+  </si>
+  <si>
+    <t>原神：0.068</t>
+  </si>
+  <si>
+    <t>麦当劳：0.068</t>
+  </si>
+  <si>
     <t>合</t>
-  </si>
-  <si>
-    <t>生活费：0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转钱宝子咪：1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父亲节红包：0.188</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电费：0.42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金：1.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原神：0.068</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,29 +123,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -168,36 +469,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -455,41 +1039,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5" style="1" customWidth="1"/>
+    <col min="16" max="18" width="11.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.75" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -518,13 +1103,13 @@
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -533,13 +1118,13 @@
       </c>
       <c r="C3" s="2">
         <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5+0.2+0.2+1+0.188+0.2</f>
-        <v>3.4882700000000004</v>
+        <v>3.48827</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>-0.98827000000000043</v>
-      </c>
-      <c r="E3" s="3" t="s">
+        <v>-0.98827</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -578,45 +1163,48 @@
       <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <f>0.42+1.5+0.068</f>
-        <v>1.988</v>
+      <c r="C4" s="3">
+        <f>0.42+1.5+0.068+0.068</f>
+        <v>2.056</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>2.012</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>1.944</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -631,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -646,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -661,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -676,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -691,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -706,9 +1294,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
@@ -716,20 +1304,20 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>6.3762699999999999</v>
+        <v>6.44427</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>2.1237300000000001</v>
+        <v>2.05573</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>2123.73</v>
+        <v>2055.73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>m</t>
   </si>
@@ -92,6 +92,42 @@
   </si>
   <si>
     <t>麦当劳：0.068</t>
+  </si>
+  <si>
+    <t>叉烧饭：0.023</t>
+  </si>
+  <si>
+    <t>原神：0.32781</t>
+  </si>
+  <si>
+    <t>奶茶：0.016</t>
+  </si>
+  <si>
+    <t>吃饭：0.01891</t>
+  </si>
+  <si>
+    <t>未知：0.3</t>
+  </si>
+  <si>
+    <t>奶茶：0.031</t>
+  </si>
+  <si>
+    <t>吃饭：0.01811</t>
+  </si>
+  <si>
+    <t>吃饭：0.025</t>
+  </si>
+  <si>
+    <t>吃饭：0.012</t>
+  </si>
+  <si>
+    <t>快递：0.0305</t>
+  </si>
+  <si>
+    <t>快递：0.02151</t>
+  </si>
+  <si>
+    <t>吃饭：0.006+0.02080+0.02+0.02+0.0695</t>
   </si>
   <si>
     <t>合</t>
@@ -107,14 +143,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,33 +614,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,109 +653,103 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1074,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1060,17 +1086,16 @@
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="1" customWidth="1"/>
     <col min="14" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="18" width="11.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="18" width="11.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="14" style="1" customWidth="1"/>
     <col min="20" max="20" width="17.75" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="37.625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1163,45 +1188,84 @@
       <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
-        <f>0.42+1.5+0.068+0.068</f>
-        <v>2.056</v>
+      <c r="C4" s="2">
+        <f>0.42+1.5+0.068+0.068+0.068+0.023+0.32781+0.016+0.01891+0.3+0.031+0.01811+0.025+0.012+0.0305+0.02151+0.006+0.0208+0.02+0.02+0.0695</f>
+        <v>3.08414</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.944</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <f>B4-C4</f>
+        <v>0.91586</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1296,7 +1360,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
@@ -1304,15 +1368,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>6.44427</v>
+        <v>7.47241</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>2.05573</v>
+        <v>1.02759</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>2055.73</v>
+        <v>1027.59</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>m</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>吃饭：0.006+0.02080+0.02+0.02+0.0695</t>
+  </si>
+  <si>
+    <t>饭卡：0.4</t>
   </si>
   <si>
     <t>合</t>
@@ -1071,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1201,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -1209,12 +1212,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <f>0.42+1.5+0.068+0.068+0.068+0.023+0.32781+0.016+0.01891+0.3+0.031+0.01811+0.025+0.012+0.0305+0.02151+0.006+0.0208+0.02+0.02+0.0695</f>
-        <v>3.08414</v>
+        <f>0.42+1.5+0.068+0.068+0.068+0.023+0.32781+0.016+0.01891+0.3+0.031+0.01811+0.025+0.012+0.0305+0.02151+0.006+0.0208+0.02+0.02+0.0695+0.4</f>
+        <v>3.48414</v>
       </c>
       <c r="D4" s="1">
-        <f>B4-C4</f>
-        <v>0.91586</v>
+        <f t="shared" si="0"/>
+        <v>0.51586</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1266,6 +1269,9 @@
       </c>
       <c r="U4" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1360,7 +1366,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
@@ -1368,15 +1374,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>7.47241</v>
+        <v>7.87241</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>1.02759</v>
+        <v>0.62759</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>1027.59</v>
+        <v>627.59</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -1,15 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C6C276-5AF4-4084-A52D-6E35A583BAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,14 +157,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,345 +167,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -501,251 +190,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -756,61 +203,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1068,19 +471,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
@@ -1102,7 +505,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1131,13 +534,13 @@
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -1146,11 +549,11 @@
       </c>
       <c r="C3" s="2">
         <f>0.79756+0.21991+0.04+0.02+0.0548+0.041+0.027+0.5+0.2+0.2+1+0.188+0.2</f>
-        <v>3.48827</v>
+        <v>3.4882700000000004</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>-0.98827</v>
+        <v>-0.98827000000000043</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -1204,7 +607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -1217,7 +620,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0.51586</v>
+        <v>0.51585999999999999</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1274,22 +677,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -1304,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -1319,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -1334,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -1349,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -1364,30 +767,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B2:B10)</f>
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>7.87241</v>
+        <v>7.8724100000000004</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.62759</v>
+        <v>4.6275899999999996</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>627.59</v>
+        <v>4627.5899999999992</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C6C276-5AF4-4084-A52D-6E35A583BAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE80A028-8A74-4A62-AF43-CFBD9BF6762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>m</t>
   </si>
@@ -152,13 +152,17 @@
   </si>
   <si>
     <t>合</t>
+  </si>
+  <si>
+    <t>生活费：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +172,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -194,12 +206,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,7 +495,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -685,11 +700,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -777,15 +795,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>7.8724100000000004</v>
+        <v>8.8724100000000004</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>4.6275899999999996</v>
+        <v>3.6275899999999996</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>4627.5899999999992</v>
+        <v>3627.5899999999997</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE80A028-8A74-4A62-AF43-CFBD9BF6762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CF6D97-829F-4DAE-AA6A-9D9C4D80C858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>m</t>
   </si>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>生活费：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大月卡：0.068</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +499,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -699,15 +703,22 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
+      <c r="C5" s="3">
+        <f>1+1+0.068</f>
+        <v>2.0680000000000001</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -795,15 +806,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>8.8724100000000004</v>
+        <v>9.94041</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>3.6275899999999996</v>
+        <v>2.55959</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>3627.5899999999997</v>
+        <v>2559.59</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CF6D97-829F-4DAE-AA6A-9D9C4D80C858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51FE79B-958D-45DE-A1E7-4E5B83D812E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>m</t>
   </si>
@@ -704,12 +704,12 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <f>1+1+0.068</f>
-        <v>2.0680000000000001</v>
+        <f>1+1+0.068+0.068</f>
+        <v>2.1360000000000001</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>1.9319999999999999</v>
+        <v>1.8639999999999999</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>40</v>
@@ -718,6 +718,9 @@
         <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -806,15 +809,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>9.94041</v>
+        <v>10.008410000000001</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>2.55959</v>
+        <v>2.4915899999999986</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>2559.59</v>
+        <v>2491.5899999999988</v>
       </c>
     </row>
   </sheetData>

--- a/22计划表.xlsx
+++ b/22计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\知识库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51FE79B-958D-45DE-A1E7-4E5B83D812E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801CF13B-CC89-4C36-91EC-6D8307FC4F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>m</t>
   </si>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>大月卡：0.068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭卡：0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包：0.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +507,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,12 +712,12 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <f>1+1+0.068+0.068</f>
-        <v>2.1360000000000001</v>
+        <f>1+1+0.068+0.068+0.4+0.04</f>
+        <v>2.5760000000000001</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>1.8639999999999999</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>40</v>
@@ -722,6 +730,12 @@
       </c>
       <c r="H5" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -809,15 +823,15 @@
       </c>
       <c r="C11" s="1">
         <f>SUM(C2:C10)</f>
-        <v>10.008410000000001</v>
+        <v>10.448410000000001</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>2.4915899999999986</v>
+        <v>2.0515899999999991</v>
       </c>
       <c r="E11" s="1">
         <f>D11*1000</f>
-        <v>2491.5899999999988</v>
+        <v>2051.5899999999992</v>
       </c>
     </row>
   </sheetData>
